--- a/IndividualProject/时间花费对比表.xlsx
+++ b/IndividualProject/时间花费对比表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\java\Java\IndividualProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\Git-space\SE_Individual_Project\IndividualProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6BBAD6-BA34-4793-BA23-0DEFCEDCD3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8948311B-59A6-451B-A506-1793F5A412A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>需求分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,30 @@
   </si>
   <si>
     <t>1小时50分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2小时10分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,45 +413,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
     </row>
